--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1230900.340987047</v>
+        <v>1227156.411786724</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5898131.871929463</v>
+        <v>5898131.87192946</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>410.1937988817583</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.7079110789995</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>417.5942214949873</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>411.7459793965839</v>
       </c>
       <c r="G11" t="n">
-        <v>383.6648885090171</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>255.1815600432282</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>197.8107631172785</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>244.6372086654008</v>
       </c>
       <c r="V11" t="n">
         <v>347.1480046672114</v>
       </c>
       <c r="W11" t="n">
-        <v>84.09911718666548</v>
+        <v>2.693084114239275</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.3604865650427</v>
       </c>
     </row>
     <row r="12">
@@ -1530,13 +1530,13 @@
         <v>178.0576566334968</v>
       </c>
       <c r="C13" t="n">
-        <v>142.3466118869167</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>152.3764369721921</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>156.2176478134697</v>
       </c>
       <c r="F13" t="n">
         <v>163.0972075995609</v>
@@ -1596,7 +1596,7 @@
         <v>231.0950612216213</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>138.5054010456391</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>240.0937608263788</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.7079110789995</v>
       </c>
       <c r="E14" t="n">
-        <v>267.2857667219774</v>
+        <v>417.5942214949873</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>411.7459793965839</v>
       </c>
       <c r="G14" t="n">
         <v>383.6648885090171</v>
       </c>
       <c r="H14" t="n">
-        <v>255.1815600432282</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>28.21893018905059</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>244.6372086654008</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>347.1480046672114</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>388.9641241447766</v>
       </c>
       <c r="X14" t="n">
-        <v>403.108262888182</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>158.9933185033069</v>
       </c>
       <c r="D16" t="n">
-        <v>152.3764369721921</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>156.2176478134697</v>
@@ -1785,7 +1785,7 @@
         <v>119.1778441161768</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.62155779981403</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>2.435809173185998</v>
+        <v>131.1394972125074</v>
       </c>
       <c r="T16" t="n">
         <v>227.981975957327</v>
@@ -1827,13 +1827,13 @@
         <v>272.2431771499735</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>257.463364471271</v>
       </c>
       <c r="X16" t="n">
-        <v>231.0950612216213</v>
+        <v>159.9855859641394</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.3026980807324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.633251607740433</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>421.9182721901105</v>
       </c>
       <c r="D17" t="n">
         <v>419.7079110789995</v>
       </c>
       <c r="E17" t="n">
-        <v>299.3613174010843</v>
+        <v>417.5942214949873</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>411.7459793965839</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>28.21893018905059</v>
       </c>
       <c r="T17" t="n">
         <v>197.8107631172785</v>
       </c>
       <c r="U17" t="n">
-        <v>244.6372086654008</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>347.1480046672114</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>388.9641241447766</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2007,10 +2007,10 @@
         <v>158.9933185033069</v>
       </c>
       <c r="D19" t="n">
-        <v>142.2343112767385</v>
+        <v>152.3764369721921</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>156.2176478134697</v>
       </c>
       <c r="F19" t="n">
         <v>163.0972075995609</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>50.62155779981403</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>131.1394972125074</v>
+        <v>15.4012815033985</v>
       </c>
       <c r="T19" t="n">
         <v>227.981975957327</v>
@@ -2083,7 +2083,7 @@
         <v>410.1937988817583</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>421.9182721901105</v>
       </c>
       <c r="D20" t="n">
         <v>419.7079110789995</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>168.7187193241369</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>28.21893018905058</v>
+        <v>28.21893018905059</v>
       </c>
       <c r="T20" t="n">
-        <v>197.8107631172785</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>244.6372086654008</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>403.108262888182</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>189.2484189167054</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>178.0576566334968</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>158.9933185033069</v>
       </c>
       <c r="D22" t="n">
-        <v>152.3764369721921</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>156.2176478134697</v>
@@ -2253,13 +2253,13 @@
         <v>163.0972075995609</v>
       </c>
       <c r="G22" t="n">
-        <v>151.2509926853064</v>
+        <v>36.63822126308284</v>
       </c>
       <c r="H22" t="n">
-        <v>119.1778441161768</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>50.62155779981403</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>257.463364471271</v>
       </c>
       <c r="X22" t="n">
-        <v>131.3574260480187</v>
+        <v>231.0950612216213</v>
       </c>
       <c r="Y22" t="n">
         <v>213.3026980807324</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>410.1937988817583</v>
+        <v>246.726187444701</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>28.21893018905058</v>
+        <v>28.21893018905059</v>
       </c>
       <c r="T23" t="n">
         <v>197.8107631172785</v>
@@ -2377,13 +2377,13 @@
         <v>244.6372086654008</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>347.1480046672114</v>
       </c>
       <c r="W23" t="n">
         <v>388.9641241447766</v>
       </c>
       <c r="X23" t="n">
-        <v>183.6803932301538</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>392.3604865650427</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790329</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>183.3698050583941</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -2572,7 +2572,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>151.1423633040386</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>196.802558638166</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>110.1517180503208</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>93.93393658450292</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>205.7900525208925</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
@@ -3091,13 +3091,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>315.6410800891016</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>262.0832236599867</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>160.7335122538386</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>251.3799005385926</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>182.2403912071283</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>222.0215175726359</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>21.37607145135575</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3681,7 +3681,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>113.1964271380696</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3757,7 +3757,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>296.8669302863556</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>136.0829573912428</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>219.6133247711586</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>296.8669302863556</v>
       </c>
       <c r="F44" t="n">
-        <v>401.0210161191598</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4194,16 +4194,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>169.2166996703676</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>211.6139185576102</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1696.411602538437</v>
+        <v>720.8707328012903</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.411602538437</v>
+        <v>720.8707328012903</v>
       </c>
       <c r="D11" t="n">
-        <v>1272.464217610155</v>
+        <v>720.8707328012903</v>
       </c>
       <c r="E11" t="n">
-        <v>850.6518726657235</v>
+        <v>720.8707328012903</v>
       </c>
       <c r="F11" t="n">
-        <v>434.7468429722044</v>
+        <v>304.9657031077711</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>304.9657031077711</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
@@ -5074,19 +5074,19 @@
         <v>2132.014755926192</v>
       </c>
       <c r="U11" t="n">
-        <v>2132.014755926192</v>
+        <v>1884.906464344979</v>
       </c>
       <c r="V11" t="n">
-        <v>1781.360205757291</v>
+        <v>1534.251914176079</v>
       </c>
       <c r="W11" t="n">
-        <v>1696.411602538437</v>
+        <v>1531.531627191998</v>
       </c>
       <c r="X11" t="n">
-        <v>1696.411602538437</v>
+        <v>1531.531627191998</v>
       </c>
       <c r="Y11" t="n">
-        <v>1696.411602538437</v>
+        <v>1135.207903388925</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.8116962561799</v>
+        <v>642.9072507555344</v>
       </c>
       <c r="C13" t="n">
-        <v>639.0272398047489</v>
+        <v>642.9072507555344</v>
       </c>
       <c r="D13" t="n">
-        <v>485.1116469035447</v>
+        <v>642.9072507555344</v>
       </c>
       <c r="E13" t="n">
         <v>485.1116469035447</v>
@@ -5202,22 +5202,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>413.3628026016838</v>
+        <v>733.4227107706873</v>
       </c>
       <c r="M13" t="n">
-        <v>997.5438780199985</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N13" t="n">
-        <v>1567.301592981533</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O13" t="n">
-        <v>1825.813263392288</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5244,7 +5244,7 @@
         <v>962.6679150778939</v>
       </c>
       <c r="Y13" t="n">
-        <v>962.6679150778939</v>
+        <v>822.7634695772483</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>962.4916174825132</v>
+        <v>1938.930552868113</v>
       </c>
       <c r="C14" t="n">
-        <v>962.4916174825132</v>
+        <v>1696.411602538437</v>
       </c>
       <c r="D14" t="n">
-        <v>962.4916174825132</v>
+        <v>1272.464217610155</v>
       </c>
       <c r="E14" t="n">
-        <v>692.5059945310209</v>
+        <v>850.6518726657235</v>
       </c>
       <c r="F14" t="n">
-        <v>692.5059945310209</v>
+        <v>434.7468429722044</v>
       </c>
       <c r="G14" t="n">
-        <v>304.9657031077712</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
         <v>1463.013992431967</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="U14" t="n">
-        <v>2113.219285866523</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="V14" t="n">
-        <v>1762.564735697623</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="W14" t="n">
-        <v>1369.671681005929</v>
+        <v>1938.930552868113</v>
       </c>
       <c r="X14" t="n">
-        <v>962.4916174825132</v>
+        <v>1938.930552868113</v>
       </c>
       <c r="Y14" t="n">
-        <v>962.4916174825132</v>
+        <v>1938.930552868113</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>957.4221552762405</v>
+        <v>854.6394490415151</v>
       </c>
       <c r="C16" t="n">
-        <v>796.8228436567385</v>
+        <v>694.0401374220132</v>
       </c>
       <c r="D16" t="n">
-        <v>642.9072507555344</v>
+        <v>694.0401374220132</v>
       </c>
       <c r="E16" t="n">
-        <v>485.1116469035447</v>
+        <v>536.2445335700236</v>
       </c>
       <c r="F16" t="n">
-        <v>320.3669927625741</v>
+        <v>371.499879429053</v>
       </c>
       <c r="G16" t="n">
-        <v>167.5882122723657</v>
+        <v>218.7210989388445</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895473</v>
+        <v>98.33943821543355</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895473</v>
@@ -5442,10 +5442,10 @@
         <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>744.992999204955</v>
+        <v>588.0160255186812</v>
       </c>
       <c r="M16" t="n">
-        <v>1160.879221014855</v>
+        <v>718.6204178572107</v>
       </c>
       <c r="N16" t="n">
         <v>1288.378132818745</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2357.867164141488</v>
+        <v>2227.863438849244</v>
       </c>
       <c r="T16" t="n">
-        <v>2127.582339942168</v>
+        <v>1997.578614649924</v>
       </c>
       <c r="U16" t="n">
-        <v>1861.158107888184</v>
+        <v>1731.15438259594</v>
       </c>
       <c r="V16" t="n">
-        <v>1586.164999655887</v>
+        <v>1456.161274363644</v>
       </c>
       <c r="W16" t="n">
-        <v>1586.164999655887</v>
+        <v>1196.097269847208</v>
       </c>
       <c r="X16" t="n">
-        <v>1352.735644886573</v>
+        <v>1034.495667863229</v>
       </c>
       <c r="Y16" t="n">
-        <v>1137.278374097954</v>
+        <v>1034.495667863229</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>773.5391055692414</v>
+        <v>1735.051384034492</v>
       </c>
       <c r="C17" t="n">
-        <v>773.5391055692414</v>
+        <v>1308.871311115188</v>
       </c>
       <c r="D17" t="n">
-        <v>349.5917206409591</v>
+        <v>884.9239261869056</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895473</v>
+        <v>463.1115812424739</v>
       </c>
       <c r="F17" t="n">
         <v>47.20655154895473</v>
@@ -5512,25 +5512,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001349</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="T17" t="n">
-        <v>2160.518725814122</v>
+        <v>2132.014755926192</v>
       </c>
       <c r="U17" t="n">
-        <v>1913.410434232909</v>
+        <v>2132.014755926192</v>
       </c>
       <c r="V17" t="n">
-        <v>1562.755884064009</v>
+        <v>2132.014755926192</v>
       </c>
       <c r="W17" t="n">
-        <v>1169.862829372315</v>
+        <v>2132.014755926192</v>
       </c>
       <c r="X17" t="n">
-        <v>1169.862829372315</v>
+        <v>2132.014755926192</v>
       </c>
       <c r="Y17" t="n">
-        <v>773.5391055692414</v>
+        <v>1735.691032123118</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>567.3544254675612</v>
+        <v>684.2617140626211</v>
       </c>
       <c r="C19" t="n">
-        <v>406.7551138480593</v>
+        <v>523.6624024431192</v>
       </c>
       <c r="D19" t="n">
-        <v>263.0840923564042</v>
+        <v>369.746809541915</v>
       </c>
       <c r="E19" t="n">
-        <v>263.0840923564042</v>
+        <v>211.9512056899254</v>
       </c>
       <c r="F19" t="n">
-        <v>98.33943821543355</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G19" t="n">
-        <v>98.33943821543355</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>98.33943821543355</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895473</v>
@@ -5676,19 +5676,19 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>358.0754347909395</v>
       </c>
       <c r="L19" t="n">
-        <v>326.783117436994</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M19" t="n">
-        <v>910.9641928553087</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N19" t="n">
-        <v>1288.378132818745</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
         <v>2274.089213540313</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2227.863438849244</v>
+        <v>2344.770727444304</v>
       </c>
       <c r="T19" t="n">
-        <v>1997.578614649924</v>
+        <v>2114.485903244984</v>
       </c>
       <c r="U19" t="n">
-        <v>1731.15438259594</v>
+        <v>1848.061671191</v>
       </c>
       <c r="V19" t="n">
-        <v>1456.161274363644</v>
+        <v>1573.068562958703</v>
       </c>
       <c r="W19" t="n">
-        <v>1196.097269847208</v>
+        <v>1313.004558442268</v>
       </c>
       <c r="X19" t="n">
-        <v>962.6679150778939</v>
+        <v>1079.575203672954</v>
       </c>
       <c r="Y19" t="n">
-        <v>747.2106442892753</v>
+        <v>864.117932884335</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1063.389230233928</v>
+        <v>1319.146354340972</v>
       </c>
       <c r="C20" t="n">
-        <v>1063.389230233928</v>
+        <v>892.9662814216688</v>
       </c>
       <c r="D20" t="n">
-        <v>639.4418453056459</v>
+        <v>469.0188964933864</v>
       </c>
       <c r="E20" t="n">
-        <v>217.6295003612142</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F20" t="n">
-        <v>217.6295003612142</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>217.6295003612142</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895473</v>
@@ -5755,13 +5755,13 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
         <v>1463.013992431967</v>
@@ -5770,7 +5770,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5782,22 +5782,22 @@
         <v>2331.823607559807</v>
       </c>
       <c r="T20" t="n">
-        <v>2132.014755926192</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="U20" t="n">
-        <v>1884.906464344979</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="V20" t="n">
-        <v>1884.906464344979</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="W20" t="n">
-        <v>1884.906464344979</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="X20" t="n">
-        <v>1477.726400821563</v>
+        <v>1924.64354403639</v>
       </c>
       <c r="Y20" t="n">
-        <v>1477.726400821563</v>
+        <v>1733.483524928607</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.9557303232174</v>
+        <v>567.3544254675612</v>
       </c>
       <c r="C22" t="n">
-        <v>847.9557303232174</v>
+        <v>406.7551138480593</v>
       </c>
       <c r="D22" t="n">
-        <v>694.0401374220132</v>
+        <v>406.7551138480593</v>
       </c>
       <c r="E22" t="n">
-        <v>536.2445335700236</v>
+        <v>248.9595099960697</v>
       </c>
       <c r="F22" t="n">
-        <v>371.499879429053</v>
+        <v>84.21485585509902</v>
       </c>
       <c r="G22" t="n">
-        <v>218.7210989388445</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>98.33943821543355</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>187.8344685463524</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>284.6345691139106</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L22" t="n">
-        <v>408.5053707322085</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M22" t="n">
-        <v>992.6864461505234</v>
+        <v>997.5438780199985</v>
       </c>
       <c r="N22" t="n">
-        <v>1120.185357954413</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2205.505779732759</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5952,10 +5952,10 @@
         <v>1196.097269847208</v>
       </c>
       <c r="X22" t="n">
-        <v>1063.413001111836</v>
+        <v>962.6679150778939</v>
       </c>
       <c r="Y22" t="n">
-        <v>847.9557303232174</v>
+        <v>747.2106442892753</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J23" t="n">
-        <v>288.7193304095859</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K23" t="n">
-        <v>524.9909807888068</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L23" t="n">
-        <v>1265.914466611436</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M23" t="n">
-        <v>1592.062354780224</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N23" t="n">
-        <v>2096.316660732227</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O23" t="n">
-        <v>2409.27217527352</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P23" t="n">
-        <v>2676.372466452789</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q23" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R23" t="n">
         <v>2993.630245747997</v>
@@ -6025,16 +6025,16 @@
         <v>2518.209132645239</v>
       </c>
       <c r="V23" t="n">
-        <v>2518.209132645239</v>
+        <v>2167.554582476339</v>
       </c>
       <c r="W23" t="n">
-        <v>2125.316077953546</v>
+        <v>1774.661527784645</v>
       </c>
       <c r="X23" t="n">
-        <v>1939.780327216017</v>
+        <v>1774.661527784645</v>
       </c>
       <c r="Y23" t="n">
-        <v>1543.456603412943</v>
+        <v>1378.337803981572</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I24" t="n">
-        <v>94.08934108643594</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J24" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K24" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L24" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M24" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N24" t="n">
         <v>1074.527417586113</v>
@@ -6126,16 +6126,16 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C25" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D25" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E25" t="n">
-        <v>596.7601865251214</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F25" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G25" t="n">
         <v>255.311952099396</v>
@@ -6150,22 +6150,22 @@
         <v>118.7782686171431</v>
       </c>
       <c r="K25" t="n">
-        <v>490.3368237558369</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L25" t="n">
-        <v>1032.417507142096</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M25" t="n">
-        <v>1622.505766661538</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N25" t="n">
-        <v>1753.488026254673</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O25" t="n">
-        <v>2290.923156828216</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P25" t="n">
-        <v>2739.199106976242</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q25" t="n">
         <v>2977.159153071229</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2211.870832261134</v>
+        <v>1761.294983468407</v>
       </c>
       <c r="C26" t="n">
-        <v>2026.648806949625</v>
+        <v>1323.152510651831</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.739022124069</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="E26" t="n">
-        <v>1156.964277282364</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="F26" t="n">
-        <v>729.0968476915723</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G26" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H26" t="n">
         <v>59.87260491495994</v>
@@ -6226,52 +6226,52 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7193304095859</v>
+        <v>369.0136545322792</v>
       </c>
       <c r="K26" t="n">
-        <v>524.9909807888068</v>
+        <v>605.2853049115001</v>
       </c>
       <c r="L26" t="n">
-        <v>818.1068556527075</v>
+        <v>898.4011797754008</v>
       </c>
       <c r="M26" t="n">
-        <v>1144.254743821495</v>
+        <v>1224.549067944188</v>
       </c>
       <c r="N26" t="n">
-        <v>1885.178229644124</v>
+        <v>1555.974369920665</v>
       </c>
       <c r="O26" t="n">
-        <v>2198.133744185417</v>
+        <v>1868.929884461958</v>
       </c>
       <c r="P26" t="n">
-        <v>2465.234035364686</v>
+        <v>2136.030175641227</v>
       </c>
       <c r="Q26" t="n">
-        <v>2707.7995967108</v>
+        <v>2876.953661463856</v>
       </c>
       <c r="R26" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S26" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T26" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U26" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="V26" t="n">
-        <v>2631.013295681823</v>
+        <v>2588.723570589443</v>
       </c>
       <c r="W26" t="n">
-        <v>2631.013295681823</v>
+        <v>2588.723570589443</v>
       </c>
       <c r="X26" t="n">
-        <v>2211.870832261134</v>
+        <v>2169.581107168754</v>
       </c>
       <c r="Y26" t="n">
-        <v>2211.870832261134</v>
+        <v>1761.294983468407</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I27" t="n">
-        <v>94.08934108643606</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J27" t="n">
         <v>187.9826804329032</v>
       </c>
       <c r="K27" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L27" t="n">
         <v>564.2447313620956</v>
@@ -6384,10 +6384,10 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K28" t="n">
-        <v>490.3368237558369</v>
+        <v>399.0682623577791</v>
       </c>
       <c r="L28" t="n">
         <v>941.1489457440381</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2036.923850175409</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="C29" t="n">
-        <v>1598.781377358833</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="D29" t="n">
-        <v>1162.871592533277</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="E29" t="n">
         <v>729.0968476915723</v>
@@ -6463,13 +6463,13 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>288.7193304095859</v>
+        <v>288.7193304095858</v>
       </c>
       <c r="K29" t="n">
-        <v>524.9909807888068</v>
+        <v>524.9909807888067</v>
       </c>
       <c r="L29" t="n">
-        <v>818.1068556527075</v>
+        <v>818.1068556527074</v>
       </c>
       <c r="M29" t="n">
         <v>1144.254743821495</v>
@@ -6481,10 +6481,10 @@
         <v>1788.635560339265</v>
       </c>
       <c r="P29" t="n">
-        <v>2507.218401699732</v>
+        <v>2529.559046161894</v>
       </c>
       <c r="Q29" t="n">
-        <v>2707.7995967108</v>
+        <v>2730.140241172961</v>
       </c>
       <c r="R29" t="n">
         <v>2993.630245747997</v>
@@ -6493,22 +6493,22 @@
         <v>2993.630245747997</v>
       </c>
       <c r="T29" t="n">
-        <v>2993.630245747997</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U29" t="n">
-        <v>2993.630245747997</v>
+        <v>2522.788302738623</v>
       </c>
       <c r="V29" t="n">
-        <v>2993.630245747997</v>
+        <v>2160.17135267245</v>
       </c>
       <c r="W29" t="n">
-        <v>2882.365884081006</v>
+        <v>1755.315898083483</v>
       </c>
       <c r="X29" t="n">
-        <v>2463.223420660317</v>
+        <v>1336.173434662794</v>
       </c>
       <c r="Y29" t="n">
-        <v>2463.223420660317</v>
+        <v>927.887310962447</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I30" t="n">
-        <v>94.08934108643606</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
         <v>187.9826804329032</v>
@@ -6548,10 +6548,10 @@
         <v>348.4613524870734</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M30" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6600,13 +6600,13 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D31" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E31" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F31" t="n">
         <v>420.0531324868776</v>
@@ -6627,19 +6627,19 @@
         <v>215.5783691847013</v>
       </c>
       <c r="L31" t="n">
-        <v>593.6420517736962</v>
+        <v>757.6590525709603</v>
       </c>
       <c r="M31" t="n">
-        <v>1183.730311293139</v>
+        <v>1347.747312090403</v>
       </c>
       <c r="N31" t="n">
-        <v>1753.488026254673</v>
+        <v>1917.505027051937</v>
       </c>
       <c r="O31" t="n">
-        <v>2290.923156828216</v>
+        <v>2454.94015762548</v>
       </c>
       <c r="P31" t="n">
-        <v>2739.199106976242</v>
+        <v>2903.216107773505</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>931.7898225732415</v>
+        <v>2065.288588445679</v>
       </c>
       <c r="C32" t="n">
-        <v>493.6473497566648</v>
+        <v>1627.146115629102</v>
       </c>
       <c r="D32" t="n">
-        <v>493.6473497566648</v>
+        <v>1191.236330803547</v>
       </c>
       <c r="E32" t="n">
-        <v>59.87260491495994</v>
+        <v>757.4615859618418</v>
       </c>
       <c r="F32" t="n">
-        <v>59.87260491495994</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="G32" t="n">
-        <v>59.87260491495994</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H32" t="n">
         <v>59.87260491495994</v>
@@ -6700,28 +6700,28 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>288.7193304095859</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>524.9909807888068</v>
+        <v>976.4735309700051</v>
       </c>
       <c r="L32" t="n">
-        <v>818.1068556527075</v>
+        <v>1269.589405833906</v>
       </c>
       <c r="M32" t="n">
-        <v>1144.254743821495</v>
+        <v>1595.737294002693</v>
       </c>
       <c r="N32" t="n">
-        <v>1475.680045797972</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O32" t="n">
-        <v>1788.635560339265</v>
+        <v>2240.118110520463</v>
       </c>
       <c r="P32" t="n">
-        <v>2529.559046161894</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q32" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R32" t="n">
         <v>2993.630245747997</v>
@@ -6730,22 +6730,22 @@
         <v>2993.630245747997</v>
       </c>
       <c r="T32" t="n">
-        <v>2785.761505827903</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U32" t="n">
-        <v>2526.690814349417</v>
+        <v>2522.788302738623</v>
       </c>
       <c r="V32" t="n">
-        <v>2164.073864283244</v>
+        <v>2160.17135267245</v>
       </c>
       <c r="W32" t="n">
-        <v>1759.218409694277</v>
+        <v>2160.17135267245</v>
       </c>
       <c r="X32" t="n">
-        <v>1340.075946273588</v>
+        <v>2160.17135267245</v>
       </c>
       <c r="Y32" t="n">
-        <v>931.7898225732415</v>
+        <v>2160.17135267245</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I33" t="n">
-        <v>94.08934108643606</v>
+        <v>94.08934108643594</v>
       </c>
       <c r="J33" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L33" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M33" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N33" t="n">
         <v>1074.527417586113</v>
@@ -6858,16 +6858,16 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>215.5783691847013</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L34" t="n">
-        <v>593.6420517736962</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M34" t="n">
-        <v>1183.730311293139</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N34" t="n">
         <v>1753.488026254673</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>635.7574768324197</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="C35" t="n">
-        <v>316.9281030050443</v>
+        <v>1451.343161621786</v>
       </c>
       <c r="D35" t="n">
-        <v>316.9281030050443</v>
+        <v>1015.433376796231</v>
       </c>
       <c r="E35" t="n">
-        <v>316.9281030050443</v>
+        <v>581.6586319545258</v>
       </c>
       <c r="F35" t="n">
-        <v>316.9281030050443</v>
+        <v>581.6586319545258</v>
       </c>
       <c r="G35" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
@@ -6940,13 +6940,13 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
         <v>1463.013992431967</v>
@@ -6955,7 +6955,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6979,10 +6979,10 @@
         <v>1889.485634438363</v>
       </c>
       <c r="X35" t="n">
-        <v>1470.343171017674</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y35" t="n">
-        <v>1062.057047317327</v>
+        <v>1889.485634438363</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7083,37 +7083,37 @@
         <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>116.635590151373</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545215</v>
+        <v>488.1941452900667</v>
       </c>
       <c r="L37" t="n">
-        <v>688.1212571728195</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M37" t="n">
-        <v>1272.302332591134</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N37" t="n">
-        <v>1539.854607180195</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,22 +7122,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1955.723270266458</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1668.767762136888</v>
+        <v>1441.348091450997</v>
       </c>
       <c r="W37" t="n">
-        <v>1396.74135772318</v>
+        <v>1169.321687037288</v>
       </c>
       <c r="X37" t="n">
-        <v>1151.349603056593</v>
+        <v>923.9299323707007</v>
       </c>
       <c r="Y37" t="n">
         <v>923.9299323707007</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1492.432620541498</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="C38" t="n">
-        <v>1492.432620541498</v>
+        <v>1186.612632672305</v>
       </c>
       <c r="D38" t="n">
-        <v>1492.432620541498</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E38" t="n">
-        <v>1058.657875699793</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F38" t="n">
-        <v>630.7904461090011</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G38" t="n">
-        <v>231.2877547884783</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
@@ -7177,13 +7177,13 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
@@ -7192,7 +7192,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7204,22 +7204,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W38" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X38" t="n">
-        <v>1900.718744241845</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="Y38" t="n">
-        <v>1492.432620541498</v>
+        <v>1624.755105488881</v>
       </c>
     </row>
     <row r="39">
@@ -7232,25 +7232,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>941.3221210718621</v>
+        <v>693.5605581121392</v>
       </c>
       <c r="C40" t="n">
-        <v>919.7301297068562</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="D40" t="n">
-        <v>753.852136908379</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>477.6707703898317</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L40" t="n">
-        <v>1019.751453776091</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M40" t="n">
-        <v>1150.35584611462</v>
+        <v>732.1459643466588</v>
       </c>
       <c r="N40" t="n">
-        <v>1277.85475791851</v>
+        <v>1301.903679308193</v>
       </c>
       <c r="O40" t="n">
-        <v>1815.289888492053</v>
+        <v>1839.338809881736</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2245.987752055747</v>
       </c>
       <c r="T40" t="n">
-        <v>2215.901038951972</v>
+        <v>2003.740527959153</v>
       </c>
       <c r="U40" t="n">
-        <v>1937.514407000715</v>
+        <v>1725.353896007897</v>
       </c>
       <c r="V40" t="n">
-        <v>1650.558898871145</v>
+        <v>1438.398387878327</v>
       </c>
       <c r="W40" t="n">
-        <v>1378.532494457437</v>
+        <v>1166.371983464619</v>
       </c>
       <c r="X40" t="n">
-        <v>1133.140739790849</v>
+        <v>920.980228798031</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.140739790849</v>
+        <v>693.5605581121392</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2182.403674944107</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C41" t="n">
-        <v>1744.26120212753</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D41" t="n">
-        <v>1308.351417301975</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E41" t="n">
-        <v>874.5766724602698</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
@@ -7414,13 +7414,13 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7429,7 +7429,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>1549.153678505326</v>
       </c>
       <c r="W41" t="n">
-        <v>2319.861207662534</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="X41" t="n">
-        <v>2182.403674944107</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="Y41" t="n">
-        <v>2182.403674944107</v>
+        <v>1144.298223916359</v>
       </c>
     </row>
     <row r="42">
@@ -7469,25 +7469,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>864.4553742723976</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C43" t="n">
-        <v>691.8936627556226</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D43" t="n">
-        <v>526.0156699571453</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E43" t="n">
-        <v>356.2576662078826</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F43" t="n">
-        <v>179.5506121696388</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>202.9123158186961</v>
+        <v>358.0754347909395</v>
       </c>
       <c r="L43" t="n">
-        <v>326.7831174369941</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M43" t="n">
-        <v>910.964192855309</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7602,19 +7602,19 @@
         <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1896.248712168155</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1609.293204038585</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1337.266799624877</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>1091.875044958289</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>864.4553742723976</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1326.330542644784</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="C44" t="n">
-        <v>888.1880698282071</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="D44" t="n">
-        <v>452.2782850026516</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="E44" t="n">
-        <v>452.2782850026516</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
@@ -7651,13 +7651,13 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
@@ -7666,7 +7666,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7681,19 +7681,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2108.089956131646</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>1745.473006065473</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W44" t="n">
-        <v>1745.473006065473</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X44" t="n">
-        <v>1326.330542644784</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="Y44" t="n">
-        <v>1326.330542644784</v>
+        <v>1444.163810064193</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.5338374743685</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C46" t="n">
-        <v>749.9721259575934</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D46" t="n">
-        <v>584.0941331591162</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>477.6707703898317</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L46" t="n">
-        <v>1019.751453776091</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M46" t="n">
-        <v>1150.35584611462</v>
+        <v>732.1459643466588</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774552</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X46" t="n">
-        <v>922.5338374743685</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.5338374743685</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
   </sheetData>
@@ -8850,25 +8850,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>45.75904403825052</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>142.1674636999937</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9090,13 +9090,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>263.8716243249365</v>
       </c>
       <c r="M16" t="n">
-        <v>288.1634641124958</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
@@ -9324,22 +9324,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N19" t="n">
-        <v>252.4394223833804</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>82.54773060122679</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9570,16 +9570,16 @@
         <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>452.330920160332</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>174.5747514904306</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>4.217953603098778</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9807,7 +9807,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>3.518533120449547</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>81.10537790171048</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>413.6345291375271</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>42.40845084348075</v>
+        <v>545.8002937490523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>97.88909899837165</v>
       </c>
       <c r="L28" t="n">
-        <v>330.2437579493973</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>456.0429799810081</v>
+        <v>478.6092875185454</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>148.2963841322171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>256.7604858289868</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>4.217953603099431</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>16.3917805336165</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>478.6092875185459</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>148.2963841322166</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>256.7604858289868</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>10.62967161639912</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>141.4680432173445</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,22 +10986,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>191.7550444507526</v>
+        <v>337.3548964453471</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>69.27619576520573</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N43" t="n">
-        <v>82.54773060122716</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11460,19 +11460,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>361.6467362329061</v>
+        <v>433.0638956244409</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>410.1937988817583</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>421.9182721901105</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.7079110789995</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>417.5942214949873</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>383.6648885090171</v>
       </c>
       <c r="H11" t="n">
-        <v>255.1815600432282</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>244.6372086654008</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>304.8650069581112</v>
+        <v>386.2710400305373</v>
       </c>
       <c r="X11" t="n">
         <v>403.108262888182</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.3604865650427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>16.64670661639025</v>
+        <v>158.9933185033069</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>152.3764369721921</v>
       </c>
       <c r="E13" t="n">
-        <v>156.2176478134697</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.3026980807324</v>
+        <v>74.79729703509329</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>410.1937988817583</v>
       </c>
       <c r="C14" t="n">
-        <v>421.9182721901105</v>
+        <v>181.8245113637317</v>
       </c>
       <c r="D14" t="n">
-        <v>419.7079110789995</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>150.3084547730099</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>411.7459793965839</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>255.1815600432282</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>28.21893018905059</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>197.8107631172785</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>244.6372086654008</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>347.1480046672114</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>403.108262888182</v>
       </c>
       <c r="Y14" t="n">
         <v>392.3604865650427</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>152.3764369721921</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>50.62155779981403</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>128.7036880393214</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>257.463364471271</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>71.10947525748185</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.3026980807324</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>410.1937988817583</v>
+        <v>409.5605472740179</v>
       </c>
       <c r="C17" t="n">
-        <v>421.9182721901105</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>118.232904093903</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>411.7459793965839</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>383.6648885090171</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>28.21893018905058</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>244.6372086654008</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>347.1480046672114</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>388.9641241447766</v>
       </c>
       <c r="X17" t="n">
         <v>403.108262888182</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>10.14212569545359</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>156.2176478134697</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>119.1778441161768</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>50.62155779981403</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.7382157091089</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>421.9182721901105</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>383.6648885090171</v>
       </c>
       <c r="H20" t="n">
-        <v>86.46284071909136</v>
+        <v>255.1815600432282</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>197.8107631172785</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>244.6372086654008</v>
       </c>
       <c r="V20" t="n">
         <v>347.1480046672114</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.3604865650427</v>
+        <v>203.1120676483373</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>178.0576566334968</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>158.9933185033069</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>152.3764369721921</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>114.6127714222235</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>119.1778441161768</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>50.62155779981403</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>99.7376351736026</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>163.4676114370573</v>
       </c>
       <c r="C23" t="n">
         <v>421.9182721901105</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>347.1480046672114</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>219.4278696580283</v>
+        <v>403.108262888182</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24445,13 +24445,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>250.3912430300168</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>207.8484172614732</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>225.2340161418927</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>290.6551819927562</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>328.1026381955558</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>3.863486494686356</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>118.1199679993093</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>133.4244407473309</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>32.7060525096812</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>84.78394473440036</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25456,10 +25456,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>192.9295212138465</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>149.4600229502516</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>29.78584597273822</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>62.12385027915616</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>278.8680813952396</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>13.11437420552826</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>55.98944086058583</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>132.5700671069322</v>
       </c>
       <c r="F44" t="n">
-        <v>22.56773917572451</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>114.8692533779062</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>31.32391856231146</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>369297.5901936098</v>
+        <v>369297.5901936099</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>284340.8343836765</v>
+        <v>284340.8343836764</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>284340.8343836765</v>
+        <v>284340.8343836764</v>
       </c>
     </row>
   </sheetData>
@@ -26328,34 +26328,34 @@
         <v>298850.51824748</v>
       </c>
       <c r="G2" t="n">
+        <v>298850.51824748</v>
+      </c>
+      <c r="H2" t="n">
         <v>298850.5182474799</v>
       </c>
-      <c r="H2" t="n">
-        <v>298850.51824748</v>
-      </c>
       <c r="I2" t="n">
-        <v>352302.9352531357</v>
+        <v>352302.935253136</v>
       </c>
       <c r="J2" t="n">
+        <v>340425.1047381765</v>
+      </c>
+      <c r="K2" t="n">
         <v>340425.1047381766</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>340425.1047381764</v>
       </c>
-      <c r="L2" t="n">
-        <v>340425.1047381765</v>
-      </c>
       <c r="M2" t="n">
-        <v>283135.6283414713</v>
+        <v>283135.6283414712</v>
       </c>
       <c r="N2" t="n">
         <v>283135.6283414713</v>
       </c>
       <c r="O2" t="n">
-        <v>283135.6283414712</v>
+        <v>283135.6283414713</v>
       </c>
       <c r="P2" t="n">
-        <v>283135.6283414712</v>
+        <v>283135.6283414713</v>
       </c>
     </row>
     <row r="3">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>27368.89005281231</v>
       </c>
       <c r="F4" t="n">
-        <v>27368.89005281231</v>
+        <v>27368.8900528123</v>
       </c>
       <c r="G4" t="n">
         <v>27368.8900528123</v>
@@ -26438,25 +26438,25 @@
         <v>27368.8900528123</v>
       </c>
       <c r="I4" t="n">
-        <v>55882.93133233124</v>
+        <v>55882.93133233127</v>
       </c>
       <c r="J4" t="n">
-        <v>48350.18179108916</v>
+        <v>48350.18179108918</v>
       </c>
       <c r="K4" t="n">
-        <v>48350.18179108916</v>
+        <v>48350.18179108917</v>
       </c>
       <c r="L4" t="n">
-        <v>48350.18179108916</v>
+        <v>48350.18179108918</v>
       </c>
       <c r="M4" t="n">
-        <v>17402.73254778062</v>
+        <v>17402.73254778061</v>
       </c>
       <c r="N4" t="n">
         <v>17402.73254778061</v>
       </c>
       <c r="O4" t="n">
-        <v>17402.73254778062</v>
+        <v>17402.73254778061</v>
       </c>
       <c r="P4" t="n">
         <v>17402.73254778061</v>
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47046.69153663202</v>
+        <v>47046.69153663203</v>
       </c>
       <c r="F5" t="n">
-        <v>47046.69153663202</v>
+        <v>47046.69153663203</v>
       </c>
       <c r="G5" t="n">
         <v>47046.69153663203</v>
@@ -26502,16 +26502,16 @@
         <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138687.8532889797</v>
+        <v>138655.946571478</v>
       </c>
       <c r="C6" t="n">
-        <v>138687.8532889796</v>
+        <v>138655.946571478</v>
       </c>
       <c r="D6" t="n">
-        <v>138687.8532889796</v>
+        <v>138655.946571478</v>
       </c>
       <c r="E6" t="n">
-        <v>-336174.4850512804</v>
+        <v>-336684.7130225412</v>
       </c>
       <c r="F6" t="n">
-        <v>224434.9366580357</v>
+        <v>223924.7086867749</v>
       </c>
       <c r="G6" t="n">
-        <v>224434.9366580356</v>
+        <v>223924.7086867749</v>
       </c>
       <c r="H6" t="n">
-        <v>224434.9366580357</v>
+        <v>223924.7086867748</v>
       </c>
       <c r="I6" t="n">
-        <v>197644.9921117401</v>
+        <v>197283.2430766064</v>
       </c>
       <c r="J6" t="n">
-        <v>236397.6411792857</v>
+        <v>236002.8981704988</v>
       </c>
       <c r="K6" t="n">
-        <v>236397.6411792855</v>
+        <v>236002.898170499</v>
       </c>
       <c r="L6" t="n">
-        <v>236397.6411792856</v>
+        <v>236002.8981704988</v>
       </c>
       <c r="M6" t="n">
-        <v>112086.4357192559</v>
+        <v>111532.5552760339</v>
       </c>
       <c r="N6" t="n">
-        <v>219681.8145840529</v>
+        <v>219127.9341408309</v>
       </c>
       <c r="O6" t="n">
-        <v>219681.8145840528</v>
+        <v>219127.9341408309</v>
       </c>
       <c r="P6" t="n">
-        <v>219681.8145840528</v>
+        <v>219127.9341408309</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932212</v>
@@ -26822,16 +26822,16 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>431.7562272868691</v>
+        <v>431.756227286869</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,19 +32071,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -32095,19 +32095,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,10 +32308,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -32320,13 +32320,13 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,10 +32414,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,10 +32545,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -32557,7 +32557,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -32575,16 +32575,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,10 +32651,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -32736,10 +32736,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,10 +32782,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916768</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -32794,7 +32794,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -32803,7 +32803,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917233</v>
@@ -32812,16 +32812,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
         <v>128.7867795998885</v>
@@ -32888,10 +32888,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
         <v>14.66668190417549</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,19 +33019,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -33049,16 +33049,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,10 +33125,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417549</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,10 +33256,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33268,7 +33268,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -33283,19 +33283,19 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,10 +33362,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417549</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,10 +33493,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -33505,7 +33505,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -33517,22 +33517,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,10 +33599,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417549</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,19 +33730,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -33760,16 +33760,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,10 +33836,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417549</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33906,7 +33906,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,10 +33967,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -33979,7 +33979,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -33997,16 +33997,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,10 +34073,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417549</v>
@@ -34085,7 +34085,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,19 +34204,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -34234,16 +34234,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,10 +34310,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34380,7 +34380,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -34395,10 +34395,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,10 +34441,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -34453,7 +34453,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -34465,22 +34465,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -34547,10 +34547,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417549</v>
@@ -34559,7 +34559,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -35415,7 +35415,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,7 +35424,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184533</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916793</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35570,10 +35570,10 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>170.8810658749151</v>
       </c>
       <c r="M13" t="n">
         <v>590.0818943619341</v>
@@ -35582,13 +35582,13 @@
         <v>575.512843395489</v>
       </c>
       <c r="O13" t="n">
-        <v>261.1228994048035</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -35652,7 +35652,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35661,7 +35661,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184533</v>
@@ -35731,7 +35731,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35810,13 +35810,13 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>547.5562458447062</v>
+        <v>388.9936461616011</v>
       </c>
       <c r="M16" t="n">
-        <v>420.087092737273</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O16" t="n">
         <v>542.8637682561043</v>
@@ -35889,7 +35889,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35901,7 +35901,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -36044,7 +36044,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>254.5083025654563</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -36053,13 +36053,13 @@
         <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>381.2262019832688</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
@@ -36123,13 +36123,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36138,13 +36138,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>142.0484010074724</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>139.7481869072826</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,31 +36357,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125711</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>748.4075614369993</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>509.3477837899027</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916768</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,10 +36448,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -36518,16 +36518,16 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572665</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>596.0487469893358</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N25" t="n">
-        <v>132.305312720338</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
@@ -36536,7 +36536,7 @@
         <v>452.8039900485105</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,7 +36594,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125711</v>
+        <v>240.3445448142815</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -36603,22 +36603,22 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>748.4075614369992</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548414</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>245.0157185314279</v>
+        <v>748.4075614369995</v>
       </c>
       <c r="R26" t="n">
-        <v>288.7178273103004</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572665</v>
+        <v>195.6669783595416</v>
       </c>
       <c r="L28" t="n">
-        <v>455.3657797860618</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
         <v>596.0487469893359</v>
@@ -36831,16 +36831,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36849,13 +36849,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>725.8412538994617</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>288.7178273103004</v>
+        <v>266.1515197727631</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36931,7 +36931,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -36992,25 +36992,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>381.8825076656514</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
         <v>596.0487469893359</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>74.68994474517604</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,16 +37068,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125711</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>255.0500132399003</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>748.4075614369995</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.9036518201638</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37159,13 +37159,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>381.8825076656514</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
@@ -37308,13 +37308,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>70.1303420226447</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247774</v>
       </c>
       <c r="N37" t="n">
-        <v>270.2548228172329</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37545,13 +37545,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37560,7 +37560,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>547.5562458447063</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247774</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5419698827561</v>
+        <v>439.1418218773506</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37782,13 +37782,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37797,7 +37797,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116994</v>
+        <v>167.0540751263756</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N43" t="n">
-        <v>211.3345102011156</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38019,13 +38019,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38034,7 +38034,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447063</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247774</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>490.4335158327945</v>
+        <v>561.8506752243293</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
         <v>70.4719911420766</v>
